--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianping\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AcceleratedVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>API Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Kernel Time Cost(ms)</t>
   </si>
   <si>
-    <t>convolved mask is 5 * 5</t>
-  </si>
-  <si>
     <t>cudaDilation</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>Updating</t>
+  </si>
+  <si>
+    <t>cudaHistogram</t>
+  </si>
+  <si>
+    <t>cudaEqualizeHist</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +501,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,7 +516,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -522,7 +525,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -546,7 +549,7 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +564,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -570,7 +573,7 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,7 +588,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -594,7 +597,7 @@
         <v>1.4239999999999999</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -618,7 +621,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +636,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -642,7 +645,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -666,7 +669,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,7 +684,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -689,8 +692,8 @@
       <c r="D18">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,11 +704,11 @@
       <c r="D19">
         <v>3.81</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -713,8 +716,8 @@
       <c r="D20">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,11 +728,11 @@
       <c r="D21">
         <v>3.4369999999999998</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -737,8 +740,8 @@
       <c r="D22">
         <v>3.12</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,22 +752,79 @@
       <c r="D23">
         <v>12.31</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="E25" s="3"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1.43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5.42</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A5"/>
@@ -779,14 +839,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>API Name</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>cudaEqualizeHist</t>
+  </si>
+  <si>
+    <t>cudaAdjust</t>
+  </si>
+  <si>
+    <t>3-ch image</t>
+  </si>
+  <si>
+    <t>1-ch image</t>
   </si>
 </sst>
 </file>
@@ -172,10 +181,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +509,7 @@
       <c r="D2">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -512,7 +521,7 @@
       <c r="D3">
         <v>3.9</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -524,7 +533,7 @@
       <c r="D4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -536,7 +545,7 @@
       <c r="D5">
         <v>3.71</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -548,7 +557,7 @@
       <c r="D6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -560,7 +569,7 @@
       <c r="D7">
         <v>0.85</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -572,7 +581,7 @@
       <c r="D8">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -584,7 +593,7 @@
       <c r="D9">
         <v>1.85</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -596,7 +605,7 @@
       <c r="D10">
         <v>1.4239999999999999</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -608,7 +617,7 @@
       <c r="D11">
         <v>5.67</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -620,7 +629,7 @@
       <c r="D12">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -632,7 +641,7 @@
       <c r="D13">
         <v>2.21</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -644,7 +653,7 @@
       <c r="D14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -656,7 +665,7 @@
       <c r="D15">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -668,7 +677,7 @@
       <c r="D16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -680,7 +689,7 @@
       <c r="D17">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -765,7 +774,7 @@
         <v>1.1719999999999999</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,7 +798,7 @@
         <v>1.43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,27 +813,40 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>5.8730000000000002</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E26:E27"/>
+  <mergeCells count="29">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A5"/>
@@ -839,6 +861,19 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -181,10 +181,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,7 +470,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
       <c r="D2">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="D3">
         <v>3.9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -533,7 +533,7 @@
       <c r="D4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
       <c r="D5">
         <v>3.71</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -557,7 +557,7 @@
       <c r="D6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -569,7 +569,7 @@
       <c r="D7">
         <v>0.85</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -581,7 +581,7 @@
       <c r="D8">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
       <c r="D9">
         <v>1.85</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -605,7 +605,7 @@
       <c r="D10">
         <v>1.4239999999999999</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
       <c r="D11">
         <v>5.67</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -629,7 +629,7 @@
       <c r="D12">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       <c r="D13">
         <v>2.21</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -653,7 +653,7 @@
       <c r="D14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="D15">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -677,7 +677,7 @@
       <c r="D16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="D17">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1.5</v>
+        <v>1.224</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>5.8730000000000002</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -845,6 +845,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="A2:A3"/>
@@ -861,19 +874,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>API Name</t>
   </si>
@@ -126,13 +126,22 @@
   </si>
   <si>
     <t>1-ch image</t>
+  </si>
+  <si>
+    <t>cudaGammaCorrection</t>
+  </si>
+  <si>
+    <t>cudaAntisotropy</t>
+  </si>
+  <si>
+    <t>3-ch image, loop times is 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +152,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,18 +191,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -467,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +530,7 @@
       <c r="D2">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -521,7 +542,7 @@
       <c r="D3">
         <v>3.9</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -533,7 +554,7 @@
       <c r="D4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -545,7 +566,7 @@
       <c r="D5">
         <v>3.71</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -557,7 +578,7 @@
       <c r="D6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -569,7 +590,7 @@
       <c r="D7">
         <v>0.85</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -581,7 +602,7 @@
       <c r="D8">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -593,7 +614,7 @@
       <c r="D9">
         <v>1.85</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -605,7 +626,7 @@
       <c r="D10">
         <v>1.4239999999999999</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -617,7 +638,7 @@
       <c r="D11">
         <v>5.67</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -629,7 +650,7 @@
       <c r="D12">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -641,7 +662,7 @@
       <c r="D13">
         <v>2.21</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -653,7 +674,7 @@
       <c r="D14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -665,7 +686,7 @@
       <c r="D15">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -677,7 +698,7 @@
       <c r="D16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -689,7 +710,7 @@
       <c r="D17">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -837,29 +858,66 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.876</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3.492</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>16.277000000000001</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>65.289000000000001</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
+  <mergeCells count="33">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A5"/>
@@ -874,7 +932,25 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>API Name</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>3-ch image, loop times is 10</t>
+  </si>
+  <si>
+    <t>cudaSum</t>
+  </si>
+  <si>
+    <t>cudaMean</t>
   </si>
 </sst>
 </file>
@@ -194,19 +200,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +527,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -530,22 +536,22 @@
       <c r="D2">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
         <v>3.9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -554,22 +560,22 @@
       <c r="D4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
         <v>3.71</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -578,22 +584,22 @@
       <c r="D6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7">
         <v>0.85</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -602,22 +608,22 @@
       <c r="D8">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="D9">
         <v>1.85</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -626,22 +632,22 @@
       <c r="D10">
         <v>1.4239999999999999</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="D11">
         <v>5.67</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -650,22 +656,22 @@
       <c r="D12">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="D13">
         <v>2.21</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -674,22 +680,22 @@
       <c r="D14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="D15">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -698,22 +704,22 @@
       <c r="D16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="D17">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
@@ -722,22 +728,22 @@
       <c r="D18">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="D19">
         <v>3.81</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
@@ -746,22 +752,22 @@
       <c r="D20">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="D21">
         <v>3.4369999999999998</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -770,22 +776,22 @@
       <c r="D22">
         <v>3.12</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="D23">
         <v>12.31</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
@@ -794,22 +800,22 @@
       <c r="D24">
         <v>1.1719999999999999</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="D25">
         <v>4.4740000000000002</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
@@ -818,22 +824,22 @@
       <c r="D26">
         <v>1.43</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="D27">
         <v>5.42</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
@@ -842,22 +848,22 @@
       <c r="D28">
         <v>1.224</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="D29">
         <v>4.8760000000000003</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
@@ -866,57 +872,126 @@
       <c r="D30">
         <v>0.876</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="D31">
         <v>3.492</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>16.277000000000001</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
         <v>65.289000000000001</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.876</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3.492</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.876</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3.492</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
@@ -932,23 +1007,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>API Name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>cudaMean</t>
+  </si>
+  <si>
+    <t>cudaGaussianBackProjection</t>
   </si>
 </sst>
 </file>
@@ -494,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -920,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>0.876</v>
+        <v>0.107</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>33</v>
@@ -932,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>3.492</v>
+        <v>0.39</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -944,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>0.876</v>
+        <v>0.107</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>33</v>
@@ -956,20 +959,46 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>3.492</v>
+        <v>0.39</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>14.507999999999999</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="A34:A35"/>
@@ -977,21 +1006,21 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
